--- a/12)_RPA/뉴스스크래핑/SRE (2)/Data/Config.xlsx
+++ b/12)_RPA/뉴스스크래핑/SRE (2)/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\UiPath\뉴스스크래핑\SRE (2)\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\바탕 화면\study\12)_RPA\뉴스스크래핑\SRE (2)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CC6F29-2297-4300-81FD-277A9051109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851EBBE-B10F-4976-9618-A43973FD531B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -939,10 +939,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>excel,iexplore,Word,Chrome,Edge</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>업로드날짜</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1122,6 +1118,10 @@
     <t>mecroRoot</t>
   </si>
   <si>
+    <t>excel,iexplore,Word,Edge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>C:\Users\1020a\OneDrive\</t>
     </r>
@@ -1129,28 +1129,48 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>문서</t>
+      <t>바탕</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t>\UiPath\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\study\12)_RPA\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>뉴스스크래핑</t>
     </r>
     <r>
@@ -1158,8 +1178,17 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t>\SRE (2)\Data\Temp\AutoFill.txt</t>
+        <family val="2"/>
+      </rPr>
+      <t>\SRE (2)\Data\Temp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>\AutoFill.txt</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -1168,7 +1197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1231,6 +1260,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1597,7 +1633,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1723,13 +1759,13 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1739,16 +1775,16 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="11">
         <v>12341234</v>
@@ -1969,7 +2005,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>64</v>
@@ -1981,13 +2017,13 @@
         <v>84</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>20220208</v>
@@ -1996,33 +2032,33 @@
     <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>102</v>
